--- a/orangeHRM-parameterization-old-git/src/test/resources/TestData.xlsx
+++ b/orangeHRM-parameterization-old-git/src/test/resources/TestData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\W10-Dell\eclipse-workspace\orangeHRM-parameterization\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\W10-Dell\git\orangeHRM-parameterization-old-git\orangeHRM-parameterization-old-git\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7D2CBEB-0D53-4978-83DE-ED5F15EB5899}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C5CC4E6-A423-4FF4-BDEC-8CCBB5F17805}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>UserName</t>
   </si>
@@ -42,12 +42,6 @@
     <t>Dominic Chase</t>
   </si>
   <si>
-    <t>Found</t>
-  </si>
-  <si>
-    <t>NotFound</t>
-  </si>
-  <si>
     <t>Chenzira Chuki</t>
   </si>
   <si>
@@ -61,16 +55,12 @@
   </si>
   <si>
     <t>Aaliyah Haq</t>
-  </si>
-  <si>
-    <t>Not Found</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -385,12 +375,12 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="14.109375" collapsed="true"/>
+    <col min="3" max="3" width="14.109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -411,48 +401,30 @@
       <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
